--- a/files/projects_2023.xlsx
+++ b/files/projects_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcabeca\PycharmProjects\training\cr_projects\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD963EF-E371-491D-B7BD-A32D76E887FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E517580-F07A-41D0-AFF9-AD4A458D678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="288" windowWidth="17088" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="projects_2023" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>David Alegria</t>
   </si>
   <si>
-    <t>Rui Cabeça</t>
-  </si>
-  <si>
     <t>Paulo Costa</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>On going</t>
+  </si>
+  <si>
+    <t>Rui Cabeca</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -623,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -649,10 +649,10 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -669,16 +669,16 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -695,16 +695,16 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -721,16 +721,16 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -773,16 +773,16 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -801,55 +801,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">

--- a/files/projects_2023.xlsx
+++ b/files/projects_2023.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcabeca\PycharmProjects\training\cr_projects\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E517580-F07A-41D0-AFF9-AD4A458D678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346D8A1F-F309-44ED-9B5A-37B09F4E780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="projects_2023" sheetId="1" r:id="rId1"/>
     <sheet name="FTE" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">projects_2023!$A$1:$H$10</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>Start_Date</t>
   </si>
@@ -74,18 +78,6 @@
     <t>30 reports to do</t>
   </si>
   <si>
-    <t>After March, 1 FTE to give support</t>
-  </si>
-  <si>
-    <t>40 reports to do (4 per month)</t>
-  </si>
-  <si>
-    <t>Standard pack to clients</t>
-  </si>
-  <si>
-    <t>Introduce Tableau to clients</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -116,9 +108,6 @@
     <t>Reports/month.4</t>
   </si>
   <si>
-    <t>Follow-up Automation</t>
-  </si>
-  <si>
     <t>Unnamed: 12</t>
   </si>
   <si>
@@ -156,6 +145,54 @@
   </si>
   <si>
     <t>Rui Cabeca</t>
+  </si>
+  <si>
+    <t>Performance Optimization</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>Migarte reports from Deposte</t>
+  </si>
+  <si>
+    <t>Until March, 1 FTE to give support</t>
+  </si>
+  <si>
+    <t>1 FTE</t>
+  </si>
+  <si>
+    <t>2 FTE</t>
+  </si>
+  <si>
+    <t>Check interest of Clients</t>
+  </si>
+  <si>
+    <t>Template...</t>
+  </si>
+  <si>
+    <t>20 to finish</t>
+  </si>
+  <si>
+    <t>Define requirements for standard reports</t>
+  </si>
+  <si>
+    <t>Create and introduce to Tilden Park 1st report</t>
+  </si>
+  <si>
+    <t>Create reports</t>
+  </si>
+  <si>
+    <t>Assesment templates and processes</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Check templates and processes to be worked on</t>
+  </si>
+  <si>
+    <t>Improving of templates and processes</t>
   </si>
 </sst>
 </file>
@@ -182,15 +219,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -213,16 +274,224 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,19 +830,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -585,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -597,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -614,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -623,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -640,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -649,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -660,132 +929,327 @@
         <v>44927</v>
       </c>
       <c r="B4" s="2">
-        <v>44985</v>
+        <v>45046</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
         <v>44</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44866</v>
+        <v>45046</v>
       </c>
       <c r="B5" s="2">
-        <v>45046</v>
+        <v>45199</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B6" s="2">
-        <v>45291</v>
+        <v>45016</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44986</v>
+        <v>44866</v>
       </c>
       <c r="B7" s="2">
-        <v>45047</v>
+        <v>45016</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44985</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45046</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45046</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45047</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B12" s="2">
+        <v>45077</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B14" s="2">
         <v>45291</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45214</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45291</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H10">
+      <sortCondition ref="C1:C10"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -795,61 +1259,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -871,16 +1356,16 @@
       <c r="G2">
         <v>3</v>
       </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="N2" s="4">
+        <v>3</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
         <v>6</v>
       </c>
     </row>
@@ -903,16 +1388,16 @@
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
+      <c r="N3" s="4">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
         <v>6</v>
       </c>
     </row>
@@ -932,16 +1417,16 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="N4" s="4">
+        <v>3</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
         <v>6</v>
       </c>
     </row>
@@ -958,19 +1443,19 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
         <v>6</v>
       </c>
     </row>
@@ -990,16 +1475,16 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
+      <c r="N6" s="4">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1019,16 +1504,16 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
+      <c r="N7" s="4">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1048,16 +1533,16 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1077,16 +1562,16 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
+      <c r="N9" s="4">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1106,16 +1591,16 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
+      <c r="N10" s="4">
+        <v>3</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1132,16 +1617,16 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>3</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1158,16 +1643,16 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
+      <c r="N12" s="4">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>3</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1184,16 +1669,16 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>3</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1201,4 +1686,420 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FF147B-DB9F-464E-AC41-CEFFBC991AEF}">
+  <dimension ref="B1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="3" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>44927</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16">
+        <v>3</v>
+      </c>
+      <c r="J4" s="16">
+        <v>2</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1</v>
+      </c>
+      <c r="L4" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18">
+        <v>3</v>
+      </c>
+      <c r="J5" s="18">
+        <v>2</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>44929</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18">
+        <v>3</v>
+      </c>
+      <c r="J6" s="18">
+        <v>2</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>44930</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18">
+        <v>3</v>
+      </c>
+      <c r="J7" s="18">
+        <v>2</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>44931</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20">
+        <v>2</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21">
+        <v>3</v>
+      </c>
+      <c r="J8" s="21">
+        <v>2</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
+        <v>44932</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18">
+        <v>3</v>
+      </c>
+      <c r="J9" s="18">
+        <v>2</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1</v>
+      </c>
+      <c r="L9" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>44933</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18">
+        <v>3</v>
+      </c>
+      <c r="J10" s="18">
+        <v>2</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1</v>
+      </c>
+      <c r="L10" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>44934</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18">
+        <v>3</v>
+      </c>
+      <c r="J11" s="18">
+        <v>2</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1</v>
+      </c>
+      <c r="L11" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>44935</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18">
+        <v>3</v>
+      </c>
+      <c r="J12" s="18">
+        <v>2</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>44936</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20">
+        <v>2</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
+        <v>3</v>
+      </c>
+      <c r="J13" s="21">
+        <v>2</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
+        <v>44937</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
+        <v>2</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
+        <v>3</v>
+      </c>
+      <c r="J14" s="18">
+        <v>2</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1</v>
+      </c>
+      <c r="L14" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>44938</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
+        <v>3</v>
+      </c>
+      <c r="J15" s="14">
+        <v>2</v>
+      </c>
+      <c r="K15" s="14">
+        <v>1</v>
+      </c>
+      <c r="L15" s="14">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/files/projects_2023.xlsx
+++ b/files/projects_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcabeca\PycharmProjects\training\cr_projects\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346D8A1F-F309-44ED-9B5A-37B09F4E780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523EFCBC-C18F-4C15-85FA-D8BE2FF53BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Start_Date</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Improving of templates and processes</t>
+  </si>
+  <si>
+    <t>Handover Operations Phase I</t>
+  </si>
+  <si>
+    <t>Handover Operations Phase II</t>
   </si>
 </sst>
 </file>
@@ -833,7 +839,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -961,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>

--- a/files/projects_2023.xlsx
+++ b/files/projects_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcabeca\PycharmProjects\training\cr_projects\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523EFCBC-C18F-4C15-85FA-D8BE2FF53BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E134AE28-4C66-4DBB-AD83-70C28BA92AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Start_Date</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Create and introduce to Tilden Park 1st report</t>
   </si>
   <si>
-    <t>Create reports</t>
-  </si>
-  <si>
     <t>Assesment templates and processes</t>
   </si>
   <si>
@@ -199,6 +196,12 @@
   </si>
   <si>
     <t>Handover Operations Phase II</t>
+  </si>
+  <si>
+    <t>Create reports Phase I</t>
+  </si>
+  <si>
+    <t>Create reports Phase II</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -967,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1166,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1189,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1212,10 +1215,10 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1224,7 +1227,7 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1238,10 +1241,10 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>1</v>
